--- a/huasen-frontend/admin/public/file/site-template.xlsx
+++ b/huasen-frontend/admin/public/file/site-template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E7450-945E-8B4B-9C4A-54FC7020163A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209646E-5DD3-C040-AA5B-F46B4A9DCBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,117 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{41E1B1D2-A844-6D4B-933F-838E53789A38}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>权限码仅支持</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>～</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>，分别代表：普通用户、特权用户、管理用户、作者权限。注意：用户只能访问到权限码小于等于的链接。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{A30B8D0B-4422-7A46-A0A4-AA3F2A9288D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>置顶标记目前仅支持输入：热、墙、优、免，输入其它字符不会生效，多个请用</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>链接。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/huasenjio/huasenjio-compose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,10 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>盗版必究</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否启用【必填】（是或否）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,23 +183,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>花森开源1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花森开源2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花森开源3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花森开源4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述描述描述描述</t>
+    <t>盗版必究，后果自负！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花森小窝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huasenjio.top/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一段简单的描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +242,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -186,16 +290,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,38 +579,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="32" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -518,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -529,109 +630,31 @@
     </row>
     <row r="2" spans="1:9" ht="32">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -645,5 +668,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/huasen-frontend/admin/public/file/site-template.xlsx
+++ b/huasen-frontend/admin/public/file/site-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209646E-5DD3-C040-AA5B-F46B4A9DCBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD4BDD-F7D0-834B-9646-7866EAD71261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>，分别代表：普通用户、特权用户、管理用户、作者权限。注意：用户只能访问到权限码小于等于的链接。</t>
+          <t>，分别代表：普通用户、特权用户、管理用户、作者权限。注意：用户权限码大于等于链接权限码，才能访问。</t>
         </r>
       </text>
     </comment>
@@ -195,7 +195,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我是一段简单的描述</t>
+    <t>描述描述描述描述描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +583,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/huasen-frontend/admin/public/file/site-template.xlsx
+++ b/huasen-frontend/admin/public/file/site-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD4BDD-F7D0-834B-9646-7866EAD71261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C7C42A-2ED5-9E4A-A5DF-08B8C63BC255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>置顶标记目前仅支持输入：热、墙、优、免，输入其它字符不会生效，多个请用</t>
+          <t>置顶标记目前仅支持输入：热、墙、优、免，输入其它字符不会生效。多个请用</t>
         </r>
         <r>
           <rPr>
@@ -109,18 +109,55 @@
             <rFont val="Microsoft YaHei UI"/>
             <charset val="1"/>
           </rPr>
-          <t>链接。</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>连接。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{46A35347-648B-2547-B83E-565BD28912AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>仅支持输入数字</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C74D058F-6946-BD47-BE66-91F002FEFE02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>支持</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>markdown</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>语法</t>
         </r>
       </text>
     </comment>
@@ -129,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,10 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图标链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,6 +229,55 @@
   </si>
   <si>
     <t>描述描述描述描述描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 标题1
+&gt; 批注批注批注
+标题一标题一标题一标题一标题一标题一标题一标题一标题一标题一标题一
+## 标题2
+标题2标题2标题2标题2标题2标题2标题2标题2标题2标题2
+### 标题3
+1. 条目1；
+2. 条目2；
+3. 条目3；
+#### 标题4
+- 第一条；
+- 第二条；
+## 测试图片
+image image image image image image
+![](https://s2.loli.net/2022/11/05/CYQcWTBhr1fRlZE.png)
+## 图表
+| Col1 | Col2 | Col3 |
+| ---- | ---- | ---- |
+| 1    | 2    | 3    |
+### 代码块
+```javascript
+你好 //普通话
+nmwngz ndei //壮语
+hello //英语
+console.log('你好') //JS
+```
+### 着重
+着重着重着重着重着重着重着**重着**重着重着`重着`重着重着重着重着重着重着重着重着重
+# 免责声明
+严格遵守中华人民共和国相关法律，不存在破解、串改、贩卖数据等违法行为，所有资源收集于各大论坛社区，仅供大家学习交流，请勿用于商业用途，违反造成损失及法律责任与本人无关！
+# 联系我们
+企鹅服务号：184820911
+QQ邮箱：[184820911@qq.com](184820911@qq.com)
+哔哩哔哩：[花森酱]('https://space.bilibili.com/241546158')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -203,8 +285,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -279,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -297,6 +380,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -597,9 +692,11 @@
     <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="32" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="10" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -607,54 +704,66 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32">
+    <row r="2" spans="1:11" ht="409.6">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
+      <c r="J2" s="10">
+        <v>99</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
